--- a/Symphony/2021/SEPTEMBER/Others/Primary Secondary DSR wise sales draft target feedack of Sep'21 Rajshahi.xlsx
+++ b/Symphony/2021/SEPTEMBER/Others/Primary Secondary DSR wise sales draft target feedack of Sep'21 Rajshahi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\September\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\SEPTEMBER\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1637,6 +1637,17 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1664,17 +1675,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2214,10 +2214,10 @@
   <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD24" sqref="AD24"/>
+      <selection pane="bottomRight" activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3131,7 +3131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="134" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="84" t="s">
         <v>8</v>
       </c>
@@ -3141,120 +3141,120 @@
       <c r="C9" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="129">
+      <c r="E9" s="120">
         <f t="shared" si="0"/>
         <v>18977554.616438098</v>
       </c>
-      <c r="F9" s="130">
+      <c r="F9" s="121">
         <f t="shared" si="1"/>
         <v>10421</v>
       </c>
-      <c r="G9" s="130">
+      <c r="G9" s="121">
         <v>442</v>
       </c>
-      <c r="H9" s="130">
+      <c r="H9" s="121">
         <v>506</v>
       </c>
-      <c r="I9" s="130">
+      <c r="I9" s="121">
         <v>506</v>
       </c>
-      <c r="J9" s="130">
+      <c r="J9" s="121">
         <v>1575</v>
       </c>
-      <c r="K9" s="130">
+      <c r="K9" s="121">
         <v>469</v>
       </c>
-      <c r="L9" s="130">
+      <c r="L9" s="121">
         <v>469</v>
       </c>
-      <c r="M9" s="130">
+      <c r="M9" s="121">
         <v>268</v>
       </c>
-      <c r="N9" s="130">
+      <c r="N9" s="121">
         <v>447</v>
       </c>
-      <c r="O9" s="130">
+      <c r="O9" s="121">
         <v>447</v>
       </c>
-      <c r="P9" s="130">
+      <c r="P9" s="121">
         <v>255</v>
       </c>
-      <c r="Q9" s="130">
+      <c r="Q9" s="121">
         <v>255</v>
       </c>
-      <c r="R9" s="130">
+      <c r="R9" s="121">
         <v>255</v>
       </c>
-      <c r="S9" s="130">
+      <c r="S9" s="121">
         <v>255</v>
       </c>
-      <c r="T9" s="130">
+      <c r="T9" s="121">
         <v>447</v>
       </c>
-      <c r="U9" s="130">
+      <c r="U9" s="121">
         <v>229</v>
       </c>
-      <c r="V9" s="130">
+      <c r="V9" s="121">
         <v>383</v>
       </c>
-      <c r="W9" s="130">
+      <c r="W9" s="121">
         <v>255</v>
       </c>
-      <c r="X9" s="130">
+      <c r="X9" s="121">
         <v>255</v>
       </c>
-      <c r="Y9" s="130">
+      <c r="Y9" s="121">
         <v>383</v>
       </c>
-      <c r="Z9" s="130">
+      <c r="Z9" s="121">
         <v>255</v>
       </c>
-      <c r="AA9" s="130">
+      <c r="AA9" s="121">
         <v>255</v>
       </c>
-      <c r="AB9" s="130">
+      <c r="AB9" s="121">
         <v>122</v>
       </c>
-      <c r="AC9" s="130">
+      <c r="AC9" s="121">
         <v>393</v>
       </c>
-      <c r="AD9" s="130">
+      <c r="AD9" s="121">
         <v>205</v>
       </c>
-      <c r="AE9" s="131">
+      <c r="AE9" s="122">
         <v>95</v>
       </c>
-      <c r="AF9" s="132">
+      <c r="AF9" s="123">
         <v>107</v>
       </c>
-      <c r="AG9" s="132">
+      <c r="AG9" s="123">
         <v>106</v>
       </c>
-      <c r="AH9" s="132">
+      <c r="AH9" s="123">
         <v>173</v>
       </c>
-      <c r="AI9" s="132">
+      <c r="AI9" s="123">
         <v>100</v>
       </c>
-      <c r="AJ9" s="132">
+      <c r="AJ9" s="123">
         <v>167</v>
       </c>
-      <c r="AK9" s="132">
+      <c r="AK9" s="123">
         <v>83</v>
       </c>
-      <c r="AL9" s="132">
+      <c r="AL9" s="123">
         <v>58</v>
       </c>
-      <c r="AM9" s="132">
+      <c r="AM9" s="123">
         <v>88</v>
       </c>
-      <c r="AN9" s="133">
+      <c r="AN9" s="124">
         <v>63</v>
       </c>
-      <c r="AO9" s="132">
+      <c r="AO9" s="123">
         <v>50</v>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
       <c r="E18" s="11">
         <f t="shared" ref="E18:AO18" si="2">SUM(E4:E17)</f>
         <v>163849976.27905715</v>
@@ -6512,12 +6512,12 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
       <c r="E18" s="11">
         <f t="shared" ref="E18:AO18" si="2">SUM(E4:E17)</f>
         <v>168266901</v>
@@ -6719,23 +6719,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="85" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
       <c r="H1" s="67">
         <v>1000</v>
       </c>
@@ -6843,13 +6843,13 @@
       </c>
     </row>
     <row r="2" spans="1:42" s="85" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
       <c r="H2" s="32" t="s">
         <v>264</v>
       </c>
@@ -23758,25 +23758,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="129" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="43">
@@ -23886,13 +23886,13 @@
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
       <c r="H2" s="44" t="s">
         <v>264</v>
       </c>
